--- a/parsonal/a_motosugi/pokemon/ポケモンバトルを考えよう.xlsx
+++ b/parsonal/a_motosugi/pokemon/ポケモンバトルを考えよう.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icon\Desktop\勉強会\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StudySession_2022\parsonal\a_motosugi\pokemon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDAA1BB-5AEE-474E-A17B-A3360A3B274D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E309C9A-4204-4C11-99C2-013D3CB8DEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>バトルに必要な人たち</t>
     <rPh sb="4" eb="6">
@@ -180,6 +180,163 @@
     <t>・技</t>
     <rPh sb="1" eb="2">
       <t>ワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・名前を言う</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・名前をもらう</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイプを言う</t>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイプをもらう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・レベルを言う</t>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・レベルをもらう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・HPを言う</t>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・HPをもらう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・トレーナーのレベル上げ下げ</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ダメージを与える</t>
+    <rPh sb="6" eb="7">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポケモンを持つ</t>
+    <rPh sb="6" eb="7">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポケモンを逃がす</t>
+    <rPh sb="6" eb="7">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポケモンのレベルを変える</t>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポケモンを増やす</t>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・勝負を仕掛ける</t>
+    <rPh sb="1" eb="3">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポケモン出す</t>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・技決める</t>
+    <rPh sb="1" eb="2">
+      <t>ワザ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ダメージ与える、受ける</t>
+    <rPh sb="5" eb="6">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイプの相性判断</t>
+    <rPh sb="5" eb="7">
+      <t>アイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・HPどれだけあるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・攻撃力どれだけあるか</t>
+    <rPh sb="1" eb="4">
+      <t>コウゲキリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -824,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O21"/>
+  <dimension ref="A2:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -836,12 +993,45 @@
     <col min="9" max="9" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="Q6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="Q7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="Q8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -855,7 +1045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:17">
       <c r="C14" t="s">
         <v>13</v>
       </c>
@@ -875,7 +1065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:17">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -892,7 +1082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:17">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -909,35 +1099,100 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="8:15">
+    <row r="17" spans="5:15">
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
       <c r="H17" t="s">
         <v>18</v>
       </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
       <c r="O17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="8:15">
+    <row r="18" spans="5:15">
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
       <c r="H18" t="s">
         <v>16</v>
       </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
       <c r="O18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="8:15">
+    <row r="19" spans="5:15">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
       <c r="H19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="8:15">
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15">
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
       <c r="H20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="8:15">
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15">
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
       <c r="H21" t="s">
         <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15">
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15">
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/parsonal/a_motosugi/pokemon/ポケモンバトルを考えよう.xlsx
+++ b/parsonal/a_motosugi/pokemon/ポケモンバトルを考えよう.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StudySession_2022\parsonal\a_motosugi\pokemon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E309C9A-4204-4C11-99C2-013D3CB8DEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8241461F-4CD6-41B2-B567-E2F58FF54964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="手持ち" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>バトルに必要な人たち</t>
     <rPh sb="4" eb="6">
@@ -184,56 +185,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・名前を言う</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・名前をもらう</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・タイプを言う</t>
-    <rPh sb="5" eb="6">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・タイプをもらう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・レベルを言う</t>
-    <rPh sb="5" eb="6">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・レベルをもらう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・HPを言う</t>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・HPをもらう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・トレーナーのレベル上げ下げ</t>
     <rPh sb="10" eb="11">
       <t>ア</t>
@@ -338,6 +289,177 @@
     <rPh sb="1" eb="4">
       <t>コウゲキリョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・手持ち残っているか判断</t>
+    <rPh sb="1" eb="3">
+      <t>テモ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ひん死状態になる</t>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポケモンを交替する</t>
+    <rPh sb="6" eb="8">
+      <t>コウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・HP残っているか</t>
+    <rPh sb="3" eb="4">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・次のポケモンいれば一番上に戻る、なければバトル終了</t>
+    <rPh sb="1" eb="2">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・自分の名前を言う</t>
+    <rPh sb="1" eb="3">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・自分のレベルを言う</t>
+    <rPh sb="1" eb="3">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・自分のタイプを言う</t>
+    <rPh sb="1" eb="3">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・自分のHPを言う</t>
+    <rPh sb="1" eb="3">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・自分の攻撃力言う</t>
+    <rPh sb="1" eb="3">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・バトルの場に出る</t>
+    <rPh sb="5" eb="6">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ボールに戻る</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・バトルの場にどのポケモン出たか判断</t>
+    <rPh sb="5" eb="6">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・HP残っていればまた攻撃、なければ次のポケモン</t>
+    <rPh sb="3" eb="4">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -475,13 +597,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>91441</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>960776</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
@@ -536,13 +658,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>289562</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>153638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>125010</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -597,13 +719,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>38816</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -656,13 +778,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>853440</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -697,6 +819,133 @@
         <a:xfrm>
           <a:off x="4960620" y="0"/>
           <a:ext cx="1257300" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>503428</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3" descr="ポケットモンスター ダイヤモンド・パール／ゲーム紹介">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C0F44B-084E-B2F2-7A74-41FD9A341BC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1005840" y="312577"/>
+          <a:ext cx="5532628" cy="2842103"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>178950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>213359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5" descr="√ダウンロード ポケモン 統一パ - ポケモンの壁紙">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689730FB-C536-B2BF-FCA0-CF7037CC3A9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9425940" y="407550"/>
+          <a:ext cx="5090160" cy="2777609"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -981,218 +1230,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q25"/>
+  <dimension ref="A2:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="8.796875" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" customWidth="1"/>
+    <col min="11" max="11" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:20">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="P3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="P4" t="s">
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="S5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="T7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="S9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="P5" t="s">
+    <row r="10" spans="1:20">
+      <c r="S10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="S11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="Q6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="Q7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="Q8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:20">
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>13</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>14</v>
       </c>
-      <c r="M14" t="s">
+      <c r="P14" t="s">
         <v>13</v>
       </c>
-      <c r="O14" t="s">
+      <c r="R14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:20">
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
         <v>15</v>
       </c>
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="L15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="C16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="5:18">
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s">
+        <v>52</v>
+      </c>
+      <c r="R17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="5:18">
+      <c r="E18" t="s">
         <v>6</v>
       </c>
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="5:15">
-      <c r="E17" t="s">
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18">
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18">
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="5:18">
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="5:18">
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="5:18">
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="5:18">
+      <c r="E24" t="s">
         <v>22</v>
       </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="5:15">
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="5:15">
-      <c r="E19" t="s">
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="5:18">
+      <c r="L25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="5:18">
+      <c r="L26" t="s">
         <v>26</v>
-      </c>
-      <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="5:15">
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="5:15">
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="5:15">
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="5:15">
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="5:15">
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="5:15">
-      <c r="E25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1201,4 +1482,20 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8853BE8B-F4F7-47AF-868F-18F2A0EFE83F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/parsonal/a_motosugi/pokemon/ポケモンバトルを考えよう.xlsx
+++ b/parsonal/a_motosugi/pokemon/ポケモンバトルを考えよう.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StudySession_2022\parsonal\a_motosugi\pokemon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8241461F-4CD6-41B2-B567-E2F58FF54964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42958983-3294-4409-8A91-E1087285E4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
   <si>
     <t>バトルに必要な人たち</t>
     <rPh sb="4" eb="6">
@@ -460,6 +460,267 @@
   </si>
   <si>
     <t>▲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーナーテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポケモンテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・tID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・pID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技テーブル</t>
+    <rPh sb="0" eb="1">
+      <t>ワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・技ID</t>
+    <rPh sb="1" eb="2">
+      <t>ワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・技名</t>
+    <rPh sb="1" eb="3">
+      <t>ワザメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・威力</t>
+    <rPh sb="1" eb="3">
+      <t>イリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータステーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・とくこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・とくぼう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・すばやさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・技ID１</t>
+    <rPh sb="1" eb="2">
+      <t>ワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・技ID２</t>
+    <rPh sb="1" eb="2">
+      <t>ワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・技ID３</t>
+    <rPh sb="1" eb="2">
+      <t>ワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・技ID４</t>
+    <rPh sb="1" eb="2">
+      <t>ワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・pID1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・pID2</t>
+  </si>
+  <si>
+    <t>・pID3</t>
+  </si>
+  <si>
+    <t>・pID4</t>
+  </si>
+  <si>
+    <t>・pID5</t>
+  </si>
+  <si>
+    <t>・pID6</t>
+  </si>
+  <si>
+    <t>手持ちを見る</t>
+    <rPh sb="0" eb="2">
+      <t>テモ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーナーを選ぶ</t>
+    <rPh sb="6" eb="7">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▽</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えらぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピカチュウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・性別</t>
+    <rPh sb="1" eb="3">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv.20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>♂</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザードン　♂</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv.50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サトシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チコリータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>♀</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP80</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サトシのポケモン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうげき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とくこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼうぎょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とくぼう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すばやさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もっているわざ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10万ボルト</t>
+    <rPh sb="2" eb="3">
+      <t>マン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でんこうせっか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かみなり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいあたり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いりょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でんき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノーマル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -492,15 +753,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -508,13 +775,145 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -844,16 +1243,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>83977</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171994</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>503428</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2686</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>226423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -883,8 +1282,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1005840" y="312577"/>
-          <a:ext cx="5532628" cy="2842103"/>
+          <a:off x="171994" y="127520"/>
+          <a:ext cx="5567463" cy="2842103"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -905,16 +1304,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>178950</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>59870</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>213359</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>118653</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>191588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -944,8 +1343,69 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9425940" y="407550"/>
-          <a:ext cx="5090160" cy="2777609"/>
+          <a:off x="6471556" y="157179"/>
+          <a:ext cx="5120640" cy="2777609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>21774</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>112057</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="ゴロチュウとはいったい⁉ 「ピカチュウ誕生秘話」公開‼｜株式会社ポケモンのプレスリリース">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7069F5-5609-3391-C572-9AB7F52695C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16557174" y="6640285"/>
+          <a:ext cx="1146197" cy="947058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1486,14 +1946,827 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8853BE8B-F4F7-47AF-868F-18F2A0EFE83F}">
-  <dimension ref="A1"/>
+  <dimension ref="B17:BM40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="4.3984375" defaultRowHeight="18"/>
+  <cols>
+    <col min="52" max="52" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="17" spans="2:65">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:65">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:65">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:65">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:65">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:65">
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:65">
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:65">
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:65">
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="2:65">
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:65">
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:65">
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="7"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="6"/>
+      <c r="AU29" s="6"/>
+      <c r="AV29" s="6"/>
+      <c r="AW29" s="6"/>
+      <c r="AX29" s="6"/>
+      <c r="AY29" s="6"/>
+      <c r="AZ29" s="6"/>
+      <c r="BA29" s="7"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="6"/>
+      <c r="BF29" s="6"/>
+      <c r="BG29" s="6"/>
+      <c r="BH29" s="6"/>
+      <c r="BI29" s="6"/>
+      <c r="BJ29" s="6"/>
+      <c r="BK29" s="6"/>
+      <c r="BL29" s="6"/>
+      <c r="BM29" s="7"/>
+    </row>
+    <row r="30" spans="2:65">
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="7"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="9"/>
+      <c r="AM30" s="9"/>
+      <c r="AN30" s="10"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU30" s="9"/>
+      <c r="AV30" s="9"/>
+      <c r="AW30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX30" s="9"/>
+      <c r="AY30" s="9"/>
+      <c r="AZ30" s="9"/>
+      <c r="BA30" s="10"/>
+      <c r="BD30" s="8"/>
+      <c r="BE30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF30" s="9"/>
+      <c r="BG30" s="9"/>
+      <c r="BH30" s="9"/>
+      <c r="BI30" s="9"/>
+      <c r="BJ30" s="9"/>
+      <c r="BK30" s="9"/>
+      <c r="BL30" s="9"/>
+      <c r="BM30" s="10"/>
+    </row>
+    <row r="31" spans="2:65">
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="10"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9"/>
+      <c r="AM31" s="9"/>
+      <c r="AN31" s="10"/>
+      <c r="AS31" s="8"/>
+      <c r="AT31" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU31" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV31" s="9"/>
+      <c r="AW31" s="9"/>
+      <c r="AX31" s="9"/>
+      <c r="AY31" s="9"/>
+      <c r="AZ31" s="9"/>
+      <c r="BA31" s="10"/>
+      <c r="BD31" s="8"/>
+      <c r="BE31" s="9"/>
+      <c r="BF31" s="9"/>
+      <c r="BG31" s="9"/>
+      <c r="BH31" s="9"/>
+      <c r="BI31" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ31" s="9"/>
+      <c r="BK31" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BL31" s="9"/>
+      <c r="BM31" s="10"/>
+    </row>
+    <row r="32" spans="2:65">
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U32" s="3"/>
+      <c r="V32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W32" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="10"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="10"/>
+      <c r="AS32" s="8"/>
+      <c r="AT32" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU32" s="9">
+        <v>100</v>
+      </c>
+      <c r="AV32" s="9"/>
+      <c r="AW32" s="9"/>
+      <c r="AX32" s="9"/>
+      <c r="AY32" s="9"/>
+      <c r="AZ32" s="9"/>
+      <c r="BA32" s="10"/>
+      <c r="BD32" s="8"/>
+      <c r="BE32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF32" s="9"/>
+      <c r="BG32" s="9"/>
+      <c r="BH32" s="9"/>
+      <c r="BI32" s="9">
+        <v>80</v>
+      </c>
+      <c r="BJ32" s="9"/>
+      <c r="BK32" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL32" s="9"/>
+      <c r="BM32" s="10"/>
+    </row>
+    <row r="33" spans="3:65">
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="10"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM33" s="13"/>
+      <c r="AN33" s="10"/>
+      <c r="AS33" s="8"/>
+      <c r="AT33" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU33" s="9"/>
+      <c r="AV33" s="9">
+        <v>35</v>
+      </c>
+      <c r="AW33" s="9"/>
+      <c r="AX33" s="9"/>
+      <c r="AY33" s="9"/>
+      <c r="AZ33" s="9"/>
+      <c r="BA33" s="10"/>
+      <c r="BD33" s="8"/>
+      <c r="BE33" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF33" s="9"/>
+      <c r="BG33" s="9"/>
+      <c r="BH33" s="9"/>
+      <c r="BI33" s="9">
+        <v>50</v>
+      </c>
+      <c r="BJ33" s="9"/>
+      <c r="BK33" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL33" s="9"/>
+      <c r="BM33" s="10"/>
+    </row>
+    <row r="34" spans="3:65">
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="10"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9"/>
+      <c r="AM34" s="9"/>
+      <c r="AN34" s="10"/>
+      <c r="AS34" s="8"/>
+      <c r="AT34" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU34" s="9"/>
+      <c r="AV34" s="9">
+        <v>35</v>
+      </c>
+      <c r="AW34" s="9"/>
+      <c r="AX34" s="9"/>
+      <c r="AY34" s="9"/>
+      <c r="AZ34" s="9"/>
+      <c r="BA34" s="10"/>
+      <c r="BD34" s="8"/>
+      <c r="BE34" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF34" s="9"/>
+      <c r="BG34" s="9"/>
+      <c r="BH34" s="9"/>
+      <c r="BI34" s="9">
+        <v>120</v>
+      </c>
+      <c r="BJ34" s="9"/>
+      <c r="BK34" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL34" s="9"/>
+      <c r="BM34" s="10"/>
+    </row>
+    <row r="35" spans="3:65">
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="10"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="9"/>
+      <c r="AM35" s="9"/>
+      <c r="AN35" s="10"/>
+      <c r="AS35" s="8"/>
+      <c r="AT35" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU35" s="9"/>
+      <c r="AV35" s="9">
+        <v>35</v>
+      </c>
+      <c r="AW35" s="9"/>
+      <c r="AX35" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY35" s="15"/>
+      <c r="AZ35" s="16"/>
+      <c r="BA35" s="10"/>
+      <c r="BD35" s="8"/>
+      <c r="BE35" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF35" s="9"/>
+      <c r="BG35" s="9"/>
+      <c r="BH35" s="9"/>
+      <c r="BI35" s="9">
+        <v>30</v>
+      </c>
+      <c r="BJ35" s="9"/>
+      <c r="BK35" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL35" s="9"/>
+      <c r="BM35" s="10"/>
+    </row>
+    <row r="36" spans="3:65">
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="10"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="9"/>
+      <c r="AK36" s="9"/>
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="9"/>
+      <c r="AN36" s="10"/>
+      <c r="AS36" s="8"/>
+      <c r="AT36" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU36" s="9"/>
+      <c r="AV36" s="9">
+        <v>35</v>
+      </c>
+      <c r="AW36" s="9"/>
+      <c r="AX36" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY36" s="9"/>
+      <c r="AZ36" s="9"/>
+      <c r="BA36" s="10"/>
+      <c r="BD36" s="8"/>
+      <c r="BE36" s="9"/>
+      <c r="BF36" s="9"/>
+      <c r="BG36" s="9"/>
+      <c r="BH36" s="9"/>
+      <c r="BI36" s="9"/>
+      <c r="BJ36" s="9"/>
+      <c r="BK36" s="9"/>
+      <c r="BL36" s="9"/>
+      <c r="BM36" s="10"/>
+    </row>
+    <row r="37" spans="3:65">
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="10"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="9"/>
+      <c r="AK37" s="9"/>
+      <c r="AL37" s="9"/>
+      <c r="AM37" s="9"/>
+      <c r="AN37" s="10"/>
+      <c r="AS37" s="8"/>
+      <c r="AT37" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU37" s="9"/>
+      <c r="AV37" s="9">
+        <v>35</v>
+      </c>
+      <c r="AW37" s="9"/>
+      <c r="AX37" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY37" s="9"/>
+      <c r="AZ37" s="9"/>
+      <c r="BA37" s="10"/>
+      <c r="BD37" s="8"/>
+      <c r="BE37" s="9"/>
+      <c r="BF37" s="9"/>
+      <c r="BG37" s="9"/>
+      <c r="BH37" s="9"/>
+      <c r="BI37" s="9"/>
+      <c r="BJ37" s="9"/>
+      <c r="BK37" s="9"/>
+      <c r="BL37" s="9"/>
+      <c r="BM37" s="10"/>
+    </row>
+    <row r="38" spans="3:65">
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="10"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9"/>
+      <c r="AK38" s="9"/>
+      <c r="AL38" s="9"/>
+      <c r="AM38" s="9"/>
+      <c r="AN38" s="10"/>
+      <c r="AS38" s="8"/>
+      <c r="AT38" s="9"/>
+      <c r="AU38" s="9"/>
+      <c r="AV38" s="9"/>
+      <c r="AW38" s="9"/>
+      <c r="AX38" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY38" s="9"/>
+      <c r="AZ38" s="9"/>
+      <c r="BA38" s="10"/>
+      <c r="BD38" s="8"/>
+      <c r="BE38" s="9"/>
+      <c r="BF38" s="9"/>
+      <c r="BG38" s="9"/>
+      <c r="BH38" s="9"/>
+      <c r="BI38" s="9"/>
+      <c r="BJ38" s="9"/>
+      <c r="BK38" s="9"/>
+      <c r="BL38" s="9"/>
+      <c r="BM38" s="10"/>
+    </row>
+    <row r="39" spans="3:65">
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="10"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="9"/>
+      <c r="AL39" s="9"/>
+      <c r="AM39" s="9"/>
+      <c r="AN39" s="10"/>
+      <c r="AS39" s="8"/>
+      <c r="AT39" s="9"/>
+      <c r="AU39" s="9"/>
+      <c r="AV39" s="9"/>
+      <c r="AW39" s="9"/>
+      <c r="AX39" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY39" s="9"/>
+      <c r="AZ39" s="9"/>
+      <c r="BA39" s="10"/>
+      <c r="BD39" s="8"/>
+      <c r="BE39" s="9"/>
+      <c r="BF39" s="9"/>
+      <c r="BG39" s="9"/>
+      <c r="BH39" s="9"/>
+      <c r="BI39" s="9"/>
+      <c r="BJ39" s="9"/>
+      <c r="BK39" s="9"/>
+      <c r="BL39" s="9"/>
+      <c r="BM39" s="10"/>
+    </row>
+    <row r="40" spans="3:65">
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="13"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="13"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="13"/>
+      <c r="AS40" s="11"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="12"/>
+      <c r="AX40" s="12"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="12"/>
+      <c r="BA40" s="13"/>
+      <c r="BD40" s="11"/>
+      <c r="BE40" s="12"/>
+      <c r="BF40" s="12"/>
+      <c r="BG40" s="12"/>
+      <c r="BH40" s="12"/>
+      <c r="BI40" s="12"/>
+      <c r="BJ40" s="12"/>
+      <c r="BK40" s="12"/>
+      <c r="BL40" s="12"/>
+      <c r="BM40" s="13"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/parsonal/a_motosugi/pokemon/ポケモンバトルを考えよう.xlsx
+++ b/parsonal/a_motosugi/pokemon/ポケモンバトルを考えよう.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StudySession_2022\parsonal\a_motosugi\pokemon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42958983-3294-4409-8A91-E1087285E4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8833DF9-ABE1-4A12-8399-80448F208545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="119">
   <si>
     <t>バトルに必要な人たち</t>
     <rPh sb="4" eb="6">
@@ -463,26 +463,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トレーナーテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポケモンテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・tID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・pID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>技テーブル</t>
-    <rPh sb="0" eb="1">
-      <t>ワザ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -511,10 +496,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステータステーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・とくこう</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -525,53 +506,6 @@
   <si>
     <t>・すばやさ</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・技ID１</t>
-    <rPh sb="1" eb="2">
-      <t>ワザ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・技ID２</t>
-    <rPh sb="1" eb="2">
-      <t>ワザ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・技ID３</t>
-    <rPh sb="1" eb="2">
-      <t>ワザ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・技ID４</t>
-    <rPh sb="1" eb="2">
-      <t>ワザ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・pID1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・pID2</t>
-  </si>
-  <si>
-    <t>・pID3</t>
-  </si>
-  <si>
-    <t>・pID4</t>
-  </si>
-  <si>
-    <t>・pID5</t>
-  </si>
-  <si>
-    <t>・pID6</t>
   </si>
   <si>
     <t>手持ちを見る</t>
@@ -721,6 +655,116 @@
   </si>
   <si>
     <t>ノーマル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もどる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手持ちポケモンテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>テモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mトレーナーテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mポケモンテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M技テーブル</t>
+    <rPh sb="1" eb="2">
+      <t>ワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mステータステーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/select/trainer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/select/party</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/pokemon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/waza</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポケモンと技</t>
+    <rPh sb="5" eb="6">
+      <t>ワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（種族）</t>
+    <rPh sb="1" eb="3">
+      <t>シュゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（実体のポケモン）</t>
+    <rPh sb="1" eb="3">
+      <t>ジッタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実体ポケモンテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ジッタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・personal_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_trainer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_pokemon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_waza</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_stats</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>personal_pokemon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get_waza</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>party_pokmoen</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1304,13 +1348,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>59870</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>157179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>118653</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>191588</xdr:rowOff>
@@ -1365,13 +1409,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>21774</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>112057</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
@@ -1422,6 +1466,324 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{189AE053-1F9D-B60E-B39E-9E789BB90AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17558657" y="7674429"/>
+          <a:ext cx="1240972" cy="206828"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>40980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EACD1C-8BE2-498F-8032-69785771E0DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2303930" y="7109012"/>
+          <a:ext cx="2913529" cy="157521"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>286870</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF727D6-F10A-4D41-835C-A1F6247DBC87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8283388" y="6849036"/>
+          <a:ext cx="1954306" cy="394446"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>322730</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76CD00BB-95E3-4D76-9031-839F3983A833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8265459" y="8866094"/>
+          <a:ext cx="4329953" cy="125506"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE574108-AC13-4C8B-AD53-3AF3745D158B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11519647" y="6956612"/>
+          <a:ext cx="3433482" cy="277905"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1699A486-2711-4E62-82D5-548F02BEB356}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13402236" y="9108141"/>
+          <a:ext cx="1900517" cy="116542"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1946,141 +2308,174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8853BE8B-F4F7-47AF-868F-18F2A0EFE83F}">
-  <dimension ref="B17:BM40"/>
+  <dimension ref="B15:BN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.3984375" defaultRowHeight="18"/>
   <cols>
-    <col min="52" max="52" width="5" customWidth="1"/>
+    <col min="53" max="53" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="2:65">
+    <row r="15" spans="2:33">
+      <c r="G15" t="s">
+        <v>113</v>
+      </c>
+      <c r="V15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33">
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" t="s">
+        <v>115</v>
+      </c>
+      <c r="V16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:66">
       <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" t="s">
+        <v>101</v>
+      </c>
+      <c r="V17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:66">
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>55</v>
       </c>
-      <c r="K17" t="s">
-        <v>58</v>
-      </c>
-      <c r="N17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:65">
-      <c r="B18" t="s">
+      <c r="L18" t="s">
         <v>56</v>
       </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:65">
+      <c r="V18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:66">
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
       </c>
-      <c r="K19" t="s">
-        <v>60</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="L19" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:65">
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
+      <c r="V19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:66">
       <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="K20" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="2:65">
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
+      <c r="L20" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" t="s">
+        <v>60</v>
+      </c>
+      <c r="V20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:66">
       <c r="G21" t="s">
         <v>18</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="s">
+        <v>61</v>
+      </c>
+      <c r="V21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:66">
+      <c r="P22" t="s">
         <v>62</v>
       </c>
-      <c r="N21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:65">
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="2:65">
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" t="s">
-        <v>67</v>
-      </c>
-      <c r="N23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="2:65">
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="2:65">
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="2:65">
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="2:65">
-      <c r="G27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="2:65">
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="6"/>
+    </row>
+    <row r="23" spans="2:66">
+      <c r="P23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:66">
+      <c r="AE28" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:66">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="P29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE29" s="5"/>
       <c r="AF29" s="6"/>
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
@@ -2089,18 +2484,18 @@
       <c r="AK29" s="6"/>
       <c r="AL29" s="6"/>
       <c r="AM29" s="6"/>
-      <c r="AN29" s="7"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="7"/>
+      <c r="AT29" s="5"/>
       <c r="AU29" s="6"/>
       <c r="AV29" s="6"/>
       <c r="AW29" s="6"/>
       <c r="AX29" s="6"/>
       <c r="AY29" s="6"/>
       <c r="AZ29" s="6"/>
-      <c r="BA29" s="7"/>
-      <c r="BD29" s="5"/>
-      <c r="BE29" s="6"/>
+      <c r="BA29" s="6"/>
+      <c r="BB29" s="7"/>
+      <c r="BE29" s="5"/>
       <c r="BF29" s="6"/>
       <c r="BG29" s="6"/>
       <c r="BH29" s="6"/>
@@ -2108,9 +2503,10 @@
       <c r="BJ29" s="6"/>
       <c r="BK29" s="6"/>
       <c r="BL29" s="6"/>
-      <c r="BM29" s="7"/>
-    </row>
-    <row r="30" spans="2:65">
+      <c r="BM29" s="6"/>
+      <c r="BN29" s="7"/>
+    </row>
+    <row r="30" spans="2:66">
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2118,8 +2514,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="7"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="6"/>
+      <c r="P30" s="5"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
@@ -2128,12 +2523,12 @@
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
-      <c r="Y30" s="7"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF30" s="9"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="7"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AG30" s="9"/>
       <c r="AH30" s="9"/>
       <c r="AI30" s="9"/>
@@ -2141,34 +2536,35 @@
       <c r="AK30" s="9"/>
       <c r="AL30" s="9"/>
       <c r="AM30" s="9"/>
-      <c r="AN30" s="10"/>
-      <c r="AS30" s="8"/>
-      <c r="AT30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU30" s="9"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="10"/>
+      <c r="AT30" s="8"/>
+      <c r="AU30" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="AV30" s="9"/>
-      <c r="AW30" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX30" s="9"/>
+      <c r="AW30" s="9"/>
+      <c r="AX30" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="AY30" s="9"/>
       <c r="AZ30" s="9"/>
-      <c r="BA30" s="10"/>
-      <c r="BD30" s="8"/>
-      <c r="BE30" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF30" s="9"/>
+      <c r="BA30" s="9"/>
+      <c r="BB30" s="10"/>
+      <c r="BE30" s="8"/>
+      <c r="BF30" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="BG30" s="9"/>
       <c r="BH30" s="9"/>
       <c r="BI30" s="9"/>
       <c r="BJ30" s="9"/>
       <c r="BK30" s="9"/>
       <c r="BL30" s="9"/>
-      <c r="BM30" s="10"/>
-    </row>
-    <row r="31" spans="2:65">
+      <c r="BM30" s="9"/>
+      <c r="BN30" s="10"/>
+    </row>
+    <row r="31" spans="2:66">
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -2176,8 +2572,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="9"/>
+      <c r="P31" s="8"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
@@ -2186,9 +2581,9 @@
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
-      <c r="Y31" s="10"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="10"/>
+      <c r="AE31" s="8"/>
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
@@ -2197,112 +2592,113 @@
       <c r="AK31" s="9"/>
       <c r="AL31" s="9"/>
       <c r="AM31" s="9"/>
-      <c r="AN31" s="10"/>
-      <c r="AS31" s="8"/>
-      <c r="AT31" s="9" t="s">
-        <v>94</v>
-      </c>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="10"/>
+      <c r="AT31" s="8"/>
       <c r="AU31" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV31" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="AV31" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="AW31" s="9"/>
       <c r="AX31" s="9"/>
       <c r="AY31" s="9"/>
       <c r="AZ31" s="9"/>
-      <c r="BA31" s="10"/>
-      <c r="BD31" s="8"/>
-      <c r="BE31" s="9"/>
+      <c r="BA31" s="9"/>
+      <c r="BB31" s="10"/>
+      <c r="BE31" s="8"/>
       <c r="BF31" s="9"/>
       <c r="BG31" s="9"/>
       <c r="BH31" s="9"/>
-      <c r="BI31" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="BJ31" s="9"/>
-      <c r="BK31" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BL31" s="9"/>
-      <c r="BM31" s="10"/>
-    </row>
-    <row r="32" spans="2:65">
+      <c r="BI31" s="9"/>
+      <c r="BJ31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK31" s="9"/>
+      <c r="BL31" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM31" s="9"/>
+      <c r="BN31" s="10"/>
+    </row>
+    <row r="32" spans="2:66">
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
       <c r="E32" s="14" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="16"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q32" s="9"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="U32" s="3"/>
-      <c r="V32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W32" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="10"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="5" t="s">
+      <c r="T32" s="9"/>
+      <c r="U32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V32" s="3"/>
+      <c r="W32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X32" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="10"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="10"/>
+      <c r="AT32" s="8"/>
+      <c r="AU32" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
-      <c r="AM32" s="7"/>
-      <c r="AN32" s="10"/>
-      <c r="AS32" s="8"/>
-      <c r="AT32" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU32" s="9">
+      <c r="AV32" s="9">
         <v>100</v>
       </c>
-      <c r="AV32" s="9"/>
       <c r="AW32" s="9"/>
       <c r="AX32" s="9"/>
       <c r="AY32" s="9"/>
       <c r="AZ32" s="9"/>
-      <c r="BA32" s="10"/>
-      <c r="BD32" s="8"/>
-      <c r="BE32" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF32" s="9"/>
+      <c r="BA32" s="9"/>
+      <c r="BB32" s="10"/>
+      <c r="BE32" s="8"/>
+      <c r="BF32" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="BG32" s="9"/>
       <c r="BH32" s="9"/>
-      <c r="BI32" s="9">
+      <c r="BI32" s="9"/>
+      <c r="BJ32" s="9">
         <v>80</v>
       </c>
-      <c r="BJ32" s="9"/>
-      <c r="BK32" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="BL32" s="9"/>
-      <c r="BM32" s="10"/>
-    </row>
-    <row r="33" spans="3:65">
+      <c r="BK32" s="9"/>
+      <c r="BL32" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM32" s="9"/>
+      <c r="BN32" s="10"/>
+    </row>
+    <row r="33" spans="3:66">
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -2310,8 +2706,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="10"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="9"/>
+      <c r="P33" s="8"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
@@ -2320,57 +2715,58 @@
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
-      <c r="Y33" s="10"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK33" s="12"/>
-      <c r="AL33" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM33" s="13"/>
-      <c r="AN33" s="10"/>
-      <c r="AS33" s="8"/>
-      <c r="AT33" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AU33" s="9"/>
-      <c r="AV33" s="9">
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="10"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="10"/>
+      <c r="AT33" s="8"/>
+      <c r="AU33" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV33" s="9"/>
+      <c r="AW33" s="9">
         <v>35</v>
       </c>
-      <c r="AW33" s="9"/>
       <c r="AX33" s="9"/>
       <c r="AY33" s="9"/>
       <c r="AZ33" s="9"/>
-      <c r="BA33" s="10"/>
-      <c r="BD33" s="8"/>
-      <c r="BE33" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF33" s="9"/>
+      <c r="BA33" s="9"/>
+      <c r="BB33" s="10"/>
+      <c r="BE33" s="8"/>
+      <c r="BF33" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="BG33" s="9"/>
       <c r="BH33" s="9"/>
-      <c r="BI33" s="9">
+      <c r="BI33" s="9"/>
+      <c r="BJ33" s="9">
         <v>50</v>
       </c>
-      <c r="BJ33" s="9"/>
-      <c r="BK33" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="BL33" s="9"/>
-      <c r="BM33" s="10"/>
-    </row>
-    <row r="34" spans="3:65">
+      <c r="BK33" s="9"/>
+      <c r="BL33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM33" s="9"/>
+      <c r="BN33" s="10"/>
+    </row>
+    <row r="34" spans="3:66">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -2378,8 +2774,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="9"/>
+      <c r="P34" s="8"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
@@ -2388,9 +2783,9 @@
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
-      <c r="Y34" s="10"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="10"/>
+      <c r="AE34" s="8"/>
       <c r="AF34" s="9"/>
       <c r="AG34" s="9"/>
       <c r="AH34" s="9"/>
@@ -2399,38 +2794,39 @@
       <c r="AK34" s="9"/>
       <c r="AL34" s="9"/>
       <c r="AM34" s="9"/>
-      <c r="AN34" s="10"/>
-      <c r="AS34" s="8"/>
-      <c r="AT34" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU34" s="9"/>
-      <c r="AV34" s="9">
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="10"/>
+      <c r="AT34" s="8"/>
+      <c r="AU34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV34" s="9"/>
+      <c r="AW34" s="9">
         <v>35</v>
       </c>
-      <c r="AW34" s="9"/>
       <c r="AX34" s="9"/>
       <c r="AY34" s="9"/>
       <c r="AZ34" s="9"/>
-      <c r="BA34" s="10"/>
-      <c r="BD34" s="8"/>
-      <c r="BE34" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="BF34" s="9"/>
+      <c r="BA34" s="9"/>
+      <c r="BB34" s="10"/>
+      <c r="BE34" s="8"/>
+      <c r="BF34" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="BG34" s="9"/>
       <c r="BH34" s="9"/>
-      <c r="BI34" s="9">
+      <c r="BI34" s="9"/>
+      <c r="BJ34" s="9">
         <v>120</v>
       </c>
-      <c r="BJ34" s="9"/>
-      <c r="BK34" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="BL34" s="9"/>
-      <c r="BM34" s="10"/>
-    </row>
-    <row r="35" spans="3:65">
+      <c r="BK34" s="9"/>
+      <c r="BL34" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM34" s="9"/>
+      <c r="BN34" s="10"/>
+    </row>
+    <row r="35" spans="3:66">
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -2438,8 +2834,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="9"/>
+      <c r="P35" s="8"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
@@ -2448,55 +2843,56 @@
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
-      <c r="Y35" s="10"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF35" s="6"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="10"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="AG35" s="6"/>
-      <c r="AH35" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI35" s="9"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="AJ35" s="9"/>
       <c r="AK35" s="9"/>
       <c r="AL35" s="9"/>
       <c r="AM35" s="9"/>
-      <c r="AN35" s="10"/>
-      <c r="AS35" s="8"/>
-      <c r="AT35" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU35" s="9"/>
-      <c r="AV35" s="9">
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="10"/>
+      <c r="AT35" s="8"/>
+      <c r="AU35" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV35" s="9"/>
+      <c r="AW35" s="9">
         <v>35</v>
       </c>
-      <c r="AW35" s="9"/>
-      <c r="AX35" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY35" s="15"/>
-      <c r="AZ35" s="16"/>
-      <c r="BA35" s="10"/>
-      <c r="BD35" s="8"/>
-      <c r="BE35" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF35" s="9"/>
+      <c r="AX35" s="9"/>
+      <c r="AY35" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ35" s="15"/>
+      <c r="BA35" s="16"/>
+      <c r="BB35" s="10"/>
+      <c r="BE35" s="8"/>
+      <c r="BF35" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="BG35" s="9"/>
       <c r="BH35" s="9"/>
-      <c r="BI35" s="9">
+      <c r="BI35" s="9"/>
+      <c r="BJ35" s="9">
         <v>30</v>
       </c>
-      <c r="BJ35" s="9"/>
-      <c r="BK35" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="BL35" s="9"/>
-      <c r="BM35" s="10"/>
-    </row>
-    <row r="36" spans="3:65">
+      <c r="BK35" s="9"/>
+      <c r="BL35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM35" s="9"/>
+      <c r="BN35" s="10"/>
+    </row>
+    <row r="36" spans="3:66">
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -2504,8 +2900,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="9"/>
+      <c r="P36" s="8"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
@@ -2514,39 +2909,39 @@
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
-      <c r="Y36" s="10"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="10"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI36" s="13"/>
       <c r="AJ36" s="9"/>
       <c r="AK36" s="9"/>
       <c r="AL36" s="9"/>
       <c r="AM36" s="9"/>
-      <c r="AN36" s="10"/>
-      <c r="AS36" s="8"/>
-      <c r="AT36" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU36" s="9"/>
-      <c r="AV36" s="9">
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="10"/>
+      <c r="AT36" s="8"/>
+      <c r="AU36" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV36" s="9"/>
+      <c r="AW36" s="9">
         <v>35</v>
       </c>
-      <c r="AW36" s="9"/>
-      <c r="AX36" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY36" s="9"/>
+      <c r="AX36" s="9"/>
+      <c r="AY36" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AZ36" s="9"/>
-      <c r="BA36" s="10"/>
-      <c r="BD36" s="8"/>
-      <c r="BE36" s="9"/>
+      <c r="BA36" s="9"/>
+      <c r="BB36" s="10"/>
+      <c r="BE36" s="8"/>
       <c r="BF36" s="9"/>
       <c r="BG36" s="9"/>
       <c r="BH36" s="9"/>
@@ -2554,9 +2949,10 @@
       <c r="BJ36" s="9"/>
       <c r="BK36" s="9"/>
       <c r="BL36" s="9"/>
-      <c r="BM36" s="10"/>
-    </row>
-    <row r="37" spans="3:65">
+      <c r="BM36" s="9"/>
+      <c r="BN36" s="10"/>
+    </row>
+    <row r="37" spans="3:66">
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -2564,8 +2960,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="10"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="9"/>
+      <c r="P37" s="8"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
@@ -2574,9 +2969,9 @@
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
-      <c r="Y37" s="10"/>
-      <c r="AD37" s="8"/>
-      <c r="AE37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="10"/>
+      <c r="AE37" s="8"/>
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
       <c r="AH37" s="9"/>
@@ -2585,24 +2980,24 @@
       <c r="AK37" s="9"/>
       <c r="AL37" s="9"/>
       <c r="AM37" s="9"/>
-      <c r="AN37" s="10"/>
-      <c r="AS37" s="8"/>
-      <c r="AT37" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU37" s="9"/>
-      <c r="AV37" s="9">
+      <c r="AN37" s="9"/>
+      <c r="AO37" s="10"/>
+      <c r="AT37" s="8"/>
+      <c r="AU37" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV37" s="9"/>
+      <c r="AW37" s="9">
         <v>35</v>
       </c>
-      <c r="AW37" s="9"/>
-      <c r="AX37" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY37" s="9"/>
+      <c r="AX37" s="9"/>
+      <c r="AY37" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="AZ37" s="9"/>
-      <c r="BA37" s="10"/>
-      <c r="BD37" s="8"/>
-      <c r="BE37" s="9"/>
+      <c r="BA37" s="9"/>
+      <c r="BB37" s="10"/>
+      <c r="BE37" s="8"/>
       <c r="BF37" s="9"/>
       <c r="BG37" s="9"/>
       <c r="BH37" s="9"/>
@@ -2610,9 +3005,10 @@
       <c r="BJ37" s="9"/>
       <c r="BK37" s="9"/>
       <c r="BL37" s="9"/>
-      <c r="BM37" s="10"/>
-    </row>
-    <row r="38" spans="3:65">
+      <c r="BM37" s="9"/>
+      <c r="BN37" s="10"/>
+    </row>
+    <row r="38" spans="3:66">
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -2620,8 +3016,7 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="10"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="9"/>
+      <c r="P38" s="8"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
@@ -2630,9 +3025,9 @@
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
-      <c r="Y38" s="10"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="10"/>
+      <c r="AE38" s="8"/>
       <c r="AF38" s="9"/>
       <c r="AG38" s="9"/>
       <c r="AH38" s="9"/>
@@ -2641,20 +3036,20 @@
       <c r="AK38" s="9"/>
       <c r="AL38" s="9"/>
       <c r="AM38" s="9"/>
-      <c r="AN38" s="10"/>
-      <c r="AS38" s="8"/>
-      <c r="AT38" s="9"/>
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="10"/>
+      <c r="AT38" s="8"/>
       <c r="AU38" s="9"/>
       <c r="AV38" s="9"/>
       <c r="AW38" s="9"/>
-      <c r="AX38" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY38" s="9"/>
+      <c r="AX38" s="9"/>
+      <c r="AY38" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="AZ38" s="9"/>
-      <c r="BA38" s="10"/>
-      <c r="BD38" s="8"/>
-      <c r="BE38" s="9"/>
+      <c r="BA38" s="9"/>
+      <c r="BB38" s="10"/>
+      <c r="BE38" s="8"/>
       <c r="BF38" s="9"/>
       <c r="BG38" s="9"/>
       <c r="BH38" s="9"/>
@@ -2662,9 +3057,10 @@
       <c r="BJ38" s="9"/>
       <c r="BK38" s="9"/>
       <c r="BL38" s="9"/>
-      <c r="BM38" s="10"/>
-    </row>
-    <row r="39" spans="3:65">
+      <c r="BM38" s="9"/>
+      <c r="BN38" s="10"/>
+    </row>
+    <row r="39" spans="3:66">
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -2672,8 +3068,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="10"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="9"/>
+      <c r="P39" s="8"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
@@ -2682,9 +3077,9 @@
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
-      <c r="Y39" s="10"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="10"/>
+      <c r="AE39" s="8"/>
       <c r="AF39" s="9"/>
       <c r="AG39" s="9"/>
       <c r="AH39" s="9"/>
@@ -2692,21 +3087,25 @@
       <c r="AJ39" s="9"/>
       <c r="AK39" s="9"/>
       <c r="AL39" s="9"/>
-      <c r="AM39" s="9"/>
-      <c r="AN39" s="10"/>
-      <c r="AS39" s="8"/>
-      <c r="AT39" s="9"/>
-      <c r="AU39" s="9"/>
-      <c r="AV39" s="9"/>
+      <c r="AM39" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN39" s="16"/>
+      <c r="AO39" s="10"/>
+      <c r="AT39" s="8"/>
+      <c r="AU39" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV39" s="16"/>
       <c r="AW39" s="9"/>
-      <c r="AX39" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AY39" s="9"/>
+      <c r="AX39" s="9"/>
+      <c r="AY39" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="AZ39" s="9"/>
-      <c r="BA39" s="10"/>
-      <c r="BD39" s="8"/>
-      <c r="BE39" s="9"/>
+      <c r="BA39" s="9"/>
+      <c r="BB39" s="10"/>
+      <c r="BE39" s="8"/>
       <c r="BF39" s="9"/>
       <c r="BG39" s="9"/>
       <c r="BH39" s="9"/>
@@ -2714,9 +3113,10 @@
       <c r="BJ39" s="9"/>
       <c r="BK39" s="9"/>
       <c r="BL39" s="9"/>
-      <c r="BM39" s="10"/>
-    </row>
-    <row r="40" spans="3:65">
+      <c r="BM39" s="9"/>
+      <c r="BN39" s="10"/>
+    </row>
+    <row r="40" spans="3:66">
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -2724,8 +3124,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="12"/>
+      <c r="P40" s="11"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
@@ -2734,9 +3133,9 @@
       <c r="V40" s="12"/>
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
-      <c r="Y40" s="13"/>
-      <c r="AD40" s="11"/>
-      <c r="AE40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="13"/>
+      <c r="AE40" s="11"/>
       <c r="AF40" s="12"/>
       <c r="AG40" s="12"/>
       <c r="AH40" s="12"/>
@@ -2745,18 +3144,18 @@
       <c r="AK40" s="12"/>
       <c r="AL40" s="12"/>
       <c r="AM40" s="12"/>
-      <c r="AN40" s="13"/>
-      <c r="AS40" s="11"/>
-      <c r="AT40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="13"/>
+      <c r="AT40" s="11"/>
       <c r="AU40" s="12"/>
       <c r="AV40" s="12"/>
       <c r="AW40" s="12"/>
       <c r="AX40" s="12"/>
       <c r="AY40" s="12"/>
       <c r="AZ40" s="12"/>
-      <c r="BA40" s="13"/>
-      <c r="BD40" s="11"/>
-      <c r="BE40" s="12"/>
+      <c r="BA40" s="12"/>
+      <c r="BB40" s="13"/>
+      <c r="BE40" s="11"/>
       <c r="BF40" s="12"/>
       <c r="BG40" s="12"/>
       <c r="BH40" s="12"/>
@@ -2764,7 +3163,8 @@
       <c r="BJ40" s="12"/>
       <c r="BK40" s="12"/>
       <c r="BL40" s="12"/>
-      <c r="BM40" s="13"/>
+      <c r="BM40" s="12"/>
+      <c r="BN40" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/parsonal/a_motosugi/pokemon/ポケモンバトルを考えよう.xlsx
+++ b/parsonal/a_motosugi/pokemon/ポケモンバトルを考えよう.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StudySession_2022\parsonal\a_motosugi\pokemon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8833DF9-ABE1-4A12-8399-80448F208545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF89AD7C-805F-4467-98C8-282534E1A4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="手持ち" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="124">
   <si>
     <t>バトルに必要な人たち</t>
     <rPh sb="4" eb="6">
@@ -765,6 +766,38 @@
   </si>
   <si>
     <t>party_pokmoen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポケモンの技</t>
+    <rPh sb="5" eb="6">
+      <t>ワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技</t>
+    <rPh sb="0" eb="1">
+      <t>ワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個体</t>
+    <rPh sb="0" eb="2">
+      <t>コタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手持ち</t>
+    <rPh sb="0" eb="2">
+      <t>テモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1789,6 +1822,318 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>653242</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA78793-8389-8147-4840-4AB193A0B20A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="21218" t="29912" r="65515" b="51250"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653242" y="312421"/>
+          <a:ext cx="1404158" cy="1021080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>541575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB338A0-F200-BAFD-CCA8-013B9AF5F14C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="312420"/>
+          <a:ext cx="6401355" cy="1074513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>549035</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106722</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EEF1A3-9858-EE7F-E0F9-4C053DDA4BCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2141220"/>
+          <a:ext cx="4557155" cy="480102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>274440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99102</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD98AAEB-4D88-C880-41F0-551525B2EA93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6263640" y="2125980"/>
+          <a:ext cx="1386960" cy="487722"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>526058</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{098ABE0E-7D62-BB92-949C-388C59CD287E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="3467100"/>
+          <a:ext cx="3208298" cy="1623201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312851</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68622</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D82A40C-FF6F-0741-768B-063817D7258C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4732020" y="3467100"/>
+          <a:ext cx="4968671" cy="487722"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>122628</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>30720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E0F3FA-0814-6DEF-073E-2235944ECC92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="5715000"/>
+          <a:ext cx="8169348" cy="2773920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2310,7 +2655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8853BE8B-F4F7-47AF-868F-18F2A0EFE83F}">
   <dimension ref="B15:BN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
@@ -3171,4 +3516,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989993E9-4A62-4585-98F8-75784C63A381}">
+  <dimension ref="B1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/parsonal/a_motosugi/pokemon/ポケモンバトルを考えよう.xlsx
+++ b/parsonal/a_motosugi/pokemon/ポケモンバトルを考えよう.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StudySession_2022\parsonal\a_motosugi\pokemon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF89AD7C-805F-4467-98C8-282534E1A4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447993B5-51B4-40D6-9E46-1157BBED220B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29304" yWindow="480" windowWidth="17280" windowHeight="14592" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1957,16 +1957,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>274440</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53460</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>99102</xdr:rowOff>
+      <xdr:rowOff>7662</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1989,7 +1989,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6263640" y="2125980"/>
+          <a:off x="6713220" y="2034540"/>
           <a:ext cx="1386960" cy="487722"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2004,13 +2004,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>526058</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>61101</xdr:rowOff>
+      <xdr:rowOff>38241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2033,7 +2033,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670560" y="3467100"/>
+          <a:off x="670560" y="3444240"/>
           <a:ext cx="3208298" cy="1623201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2655,7 +2655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8853BE8B-F4F7-47AF-868F-18F2A0EFE83F}">
   <dimension ref="B15:BN40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="O12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
@@ -3520,13 +3520,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989993E9-4A62-4585-98F8-75784C63A381}">
-  <dimension ref="B1:J25"/>
+  <dimension ref="B1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:11">
       <c r="B1" t="s">
         <v>119</v>
       </c>
@@ -3534,7 +3536,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:11">
       <c r="B9" t="s">
         <v>121</v>
       </c>
@@ -3542,7 +3544,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="12" spans="2:11">
+      <c r="K12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" t="s">
         <v>1</v>
       </c>

--- a/parsonal/a_motosugi/pokemon/ポケモンバトルを考えよう.xlsx
+++ b/parsonal/a_motosugi/pokemon/ポケモンバトルを考えよう.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StudySession_2022\parsonal\a_motosugi\pokemon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447993B5-51B4-40D6-9E46-1157BBED220B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401A5CD3-AD7D-412E-809E-723008479745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29304" yWindow="480" windowWidth="17280" windowHeight="14592" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="125">
   <si>
     <t>バトルに必要な人たち</t>
     <rPh sb="4" eb="6">
@@ -798,6 +798,10 @@
   </si>
   <si>
     <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>party_pokemon</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3520,41 +3524,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989993E9-4A62-4585-98F8-75784C63A381}">
-  <dimension ref="B1:K25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
         <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
       </c>
       <c r="F1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
+      <c r="G1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
         <v>121</v>
       </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="J9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="12" spans="2:11">
+      <c r="K9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="K12">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>1</v>
       </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
       <c r="H15" t="s">
         <v>123</v>
+      </c>
+      <c r="J15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="2:2">
